--- a/raw data used/live births/Merged births end.xlsx
+++ b/raw data used/live births/Merged births end.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/phillipssalawu/Desktop/Test_repo/raw data used/live births/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47179D8E-BD44-4D40-8B9E-20C890728CF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8E655D1-85F5-3E4F-8392-2BD645DED9EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="880" yWindow="1460" windowWidth="24640" windowHeight="14000" xr2:uid="{93B9FE56-E346-684B-9126-1A1C71F73C56}"/>
+    <workbookView xWindow="1420" yWindow="1500" windowWidth="24640" windowHeight="14000" xr2:uid="{93B9FE56-E346-684B-9126-1A1C71F73C56}"/>
   </bookViews>
   <sheets>
     <sheet name="merged end" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'merged end'!$A$1:$AC$1</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'merged end'!$A:$B,'merged end'!$1:$1</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2818,8 +2818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8185E7E7-208E-2747-9F95-B32F46041E86}">
   <dimension ref="A1:AC386"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A126" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E137" sqref="E137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/raw data used/live births/Merged births end.xlsx
+++ b/raw data used/live births/Merged births end.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/phillipssalawu/Desktop/Test_repo/raw data used/live births/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8E655D1-85F5-3E4F-8392-2BD645DED9EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C18EE25-2869-D74A-B938-B6EDA4546910}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1420" yWindow="1500" windowWidth="24640" windowHeight="14000" xr2:uid="{93B9FE56-E346-684B-9126-1A1C71F73C56}"/>
+    <workbookView xWindow="960" yWindow="1500" windowWidth="24640" windowHeight="14000" xr2:uid="{93B9FE56-E346-684B-9126-1A1C71F73C56}"/>
   </bookViews>
   <sheets>
     <sheet name="merged end" sheetId="2" r:id="rId1"/>
@@ -2818,8 +2818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8185E7E7-208E-2747-9F95-B32F46041E86}">
   <dimension ref="A1:AC386"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A126" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E137" sqref="E137"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AB1" sqref="AB1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3115,7 +3115,7 @@
         <v>43191</v>
       </c>
       <c r="K1" s="4">
-        <v>43191</v>
+        <v>43221</v>
       </c>
       <c r="L1" s="4">
         <v>43252</v>
@@ -3151,7 +3151,7 @@
         <v>43556</v>
       </c>
       <c r="W1" s="4">
-        <v>43556</v>
+        <v>43586</v>
       </c>
       <c r="X1" s="4">
         <v>43617</v>
